--- a/natmiOut/OldD4/LR-pairs_lrc2p/Gnai2-Agtr2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Gnai2-Agtr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,57 +534,57 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>137.891167503392</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H2">
-        <v>137.891167503392</v>
+        <v>455.178215</v>
       </c>
       <c r="I2">
-        <v>0.2615920078918041</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J2">
-        <v>0.2615920078918041</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.58248163700329</v>
+        <v>3.743532666666667</v>
       </c>
       <c r="N2">
-        <v>3.58248163700329</v>
+        <v>11.230598</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9802973346235675</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9802973346235675</v>
       </c>
       <c r="Q2">
-        <v>493.9925754858467</v>
+        <v>567.9915056691746</v>
       </c>
       <c r="R2">
-        <v>493.9925754858467</v>
+        <v>5111.923551022571</v>
       </c>
       <c r="S2">
-        <v>0.2615920078918041</v>
+        <v>0.2647527693132745</v>
       </c>
       <c r="T2">
-        <v>0.2615920078918041</v>
+        <v>0.2728526759919964</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>75.6052636891754</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H3">
-        <v>75.6052636891754</v>
+        <v>455.178215</v>
       </c>
       <c r="I3">
-        <v>0.1434300187149709</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J3">
-        <v>0.1434300187149709</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>3.58248163700329</v>
+        <v>0.07524</v>
       </c>
       <c r="N3">
-        <v>3.58248163700329</v>
+        <v>0.22572</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.01970266537643246</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.01970266537643246</v>
       </c>
       <c r="Q3">
-        <v>270.8544688272625</v>
+        <v>11.4158696322</v>
       </c>
       <c r="R3">
-        <v>270.8544688272625</v>
+        <v>102.7428266898</v>
       </c>
       <c r="S3">
-        <v>0.1434300187149709</v>
+        <v>0.005321176582884752</v>
       </c>
       <c r="T3">
-        <v>0.1434300187149709</v>
+        <v>0.005483973874313141</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -658,57 +658,57 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>113.916721093036</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H4">
-        <v>113.916721093036</v>
+        <v>246.746613</v>
       </c>
       <c r="I4">
-        <v>0.2161103161480222</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J4">
-        <v>0.2161103161480222</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.58248163700329</v>
+        <v>3.743532666666667</v>
       </c>
       <c r="N4">
-        <v>3.58248163700329</v>
+        <v>11.230598</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9802973346235675</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9802973346235675</v>
       </c>
       <c r="Q4">
-        <v>408.1045614634269</v>
+        <v>307.9013353849526</v>
       </c>
       <c r="R4">
-        <v>408.1045614634269</v>
+        <v>2771.112018464574</v>
       </c>
       <c r="S4">
-        <v>0.2161103161480222</v>
+        <v>0.1435192787300263</v>
       </c>
       <c r="T4">
-        <v>0.2161103161480222</v>
+        <v>0.1479101403150666</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>150.902023922951</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H5">
-        <v>150.902023922951</v>
+        <v>246.746613</v>
       </c>
       <c r="I5">
-        <v>0.2862747784913111</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J5">
-        <v>0.2862747784913111</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>3.58248163700329</v>
+        <v>0.07524</v>
       </c>
       <c r="N5">
-        <v>3.58248163700329</v>
+        <v>0.22572</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.01970266537643246</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.01970266537643246</v>
       </c>
       <c r="Q5">
-        <v>540.6037296906031</v>
+        <v>6.18840505404</v>
       </c>
       <c r="R5">
-        <v>540.6037296906031</v>
+        <v>55.69564548636</v>
       </c>
       <c r="S5">
-        <v>0.2862747784913111</v>
+        <v>0.002884545559812712</v>
       </c>
       <c r="T5">
-        <v>0.2862747784913111</v>
+        <v>0.002972796005334428</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -782,52 +782,362 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>48.8078372759574</v>
+        <v>123.444321</v>
       </c>
       <c r="H6">
-        <v>48.8078372759574</v>
+        <v>370.332963</v>
       </c>
       <c r="I6">
-        <v>0.09259287875389165</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J6">
-        <v>0.09259287875389165</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.58248163700329</v>
+        <v>3.743532666666667</v>
       </c>
       <c r="N6">
-        <v>3.58248163700329</v>
+        <v>11.230598</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.9802973346235675</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.9802973346235675</v>
       </c>
       <c r="Q6">
-        <v>174.8531807829621</v>
+        <v>462.117848177986</v>
       </c>
       <c r="R6">
-        <v>174.8531807829621</v>
+        <v>4159.060633601875</v>
       </c>
       <c r="S6">
-        <v>0.09259287875389165</v>
+        <v>0.2154028340794834</v>
       </c>
       <c r="T6">
-        <v>0.09259287875389165</v>
+        <v>0.2219929175709672</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>123.444321</v>
+      </c>
+      <c r="H7">
+        <v>370.332963</v>
+      </c>
+      <c r="I7">
+        <v>0.2197321429647646</v>
+      </c>
+      <c r="J7">
+        <v>0.2264546783208506</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.07524</v>
+      </c>
+      <c r="N7">
+        <v>0.22572</v>
+      </c>
+      <c r="O7">
+        <v>0.01970266537643246</v>
+      </c>
+      <c r="P7">
+        <v>0.01970266537643246</v>
+      </c>
+      <c r="Q7">
+        <v>9.287950712040001</v>
+      </c>
+      <c r="R7">
+        <v>83.59155640836001</v>
+      </c>
+      <c r="S7">
+        <v>0.004329308885281175</v>
+      </c>
+      <c r="T7">
+        <v>0.004461760749883373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>154.3429766666667</v>
+      </c>
+      <c r="H8">
+        <v>463.02893</v>
+      </c>
+      <c r="I8">
+        <v>0.2747320633285943</v>
+      </c>
+      <c r="J8">
+        <v>0.2831372788071194</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>3.743532666666667</v>
+      </c>
+      <c r="N8">
+        <v>11.230598</v>
+      </c>
+      <c r="O8">
+        <v>0.9802973346235675</v>
+      </c>
+      <c r="P8">
+        <v>0.9802973346235675</v>
+      </c>
+      <c r="Q8">
+        <v>577.7879750222378</v>
+      </c>
+      <c r="R8">
+        <v>5200.091775200141</v>
+      </c>
+      <c r="S8">
+        <v>0.2693191094166542</v>
+      </c>
+      <c r="T8">
+        <v>0.2775587197471891</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>154.3429766666667</v>
+      </c>
+      <c r="H9">
+        <v>463.02893</v>
+      </c>
+      <c r="I9">
+        <v>0.2747320633285943</v>
+      </c>
+      <c r="J9">
+        <v>0.2831372788071194</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.07524</v>
+      </c>
+      <c r="N9">
+        <v>0.22572</v>
+      </c>
+      <c r="O9">
+        <v>0.01970266537643246</v>
+      </c>
+      <c r="P9">
+        <v>0.01970266537643246</v>
+      </c>
+      <c r="Q9">
+        <v>11.6127655644</v>
+      </c>
+      <c r="R9">
+        <v>104.5148900796</v>
+      </c>
+      <c r="S9">
+        <v>0.005412953911940146</v>
+      </c>
+      <c r="T9">
+        <v>0.005578559059930335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>50.0323125</v>
+      </c>
+      <c r="H10">
+        <v>100.064625</v>
+      </c>
+      <c r="I10">
+        <v>0.08905802352064279</v>
+      </c>
+      <c r="J10">
+        <v>0.06118845668531954</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.743532666666667</v>
+      </c>
+      <c r="N10">
+        <v>11.230598</v>
+      </c>
+      <c r="O10">
+        <v>0.9802973346235675</v>
+      </c>
+      <c r="P10">
+        <v>0.9802973346235675</v>
+      </c>
+      <c r="Q10">
+        <v>187.297596232625</v>
+      </c>
+      <c r="R10">
+        <v>1123.78557739575</v>
+      </c>
+      <c r="S10">
+        <v>0.08730334308412911</v>
+      </c>
+      <c r="T10">
+        <v>0.05998288099834835</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>50.0323125</v>
+      </c>
+      <c r="H11">
+        <v>100.064625</v>
+      </c>
+      <c r="I11">
+        <v>0.08905802352064279</v>
+      </c>
+      <c r="J11">
+        <v>0.06118845668531954</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.07524</v>
+      </c>
+      <c r="N11">
+        <v>0.22572</v>
+      </c>
+      <c r="O11">
+        <v>0.01970266537643246</v>
+      </c>
+      <c r="P11">
+        <v>0.01970266537643246</v>
+      </c>
+      <c r="Q11">
+        <v>3.7644311925</v>
+      </c>
+      <c r="R11">
+        <v>22.586587155</v>
+      </c>
+      <c r="S11">
+        <v>0.001754680436513677</v>
+      </c>
+      <c r="T11">
+        <v>0.001205575686971183</v>
       </c>
     </row>
   </sheetData>
